--- a/Factures_Excel/1546 - Publipage.xlsx
+++ b/Factures_Excel/1546 - Publipage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\Facturation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EBB203-0A13-477A-8454-26909BD3538D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFB54A0-7B32-45BD-BC6F-6600A671D8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15-12-20" sheetId="4" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="26-05-24" sheetId="11" r:id="rId7"/>
     <sheet name="Activités" sheetId="5" r:id="rId8"/>
     <sheet name="2024-09-06 - 24-24493" sheetId="12" r:id="rId9"/>
+    <sheet name="2025-03-01 - 25-24756" sheetId="13" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -41,6 +42,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'09-12-23 (2)'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'11-12-21'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'15-12-20'!$A$1:$F$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'2025-03-01 - 25-24756'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'21-12-22'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'26-05-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'28-03-24'!$A$1:$F$89</definedName>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="124">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -408,23 +410,51 @@
   </si>
   <si>
     <t>Frais d'expert en taxes</t>
+  </si>
+  <si>
+    <t>Le 1 MARS 2025</t>
+  </si>
+  <si>
+    <t>2060 rue Peel</t>
+  </si>
+  <si>
+    <t>Bureau 902</t>
+  </si>
+  <si>
+    <t>Montréal, Québec, H3A 0J1</t>
+  </si>
+  <si>
+    <t>25-24756</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous et les comptables en lien avec divers sujets dont les états financiers et déclarations de revenus;</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation des déclarations de revenus des différentes entités ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recherches et analyses fiscales requises pour produire les différentes déclarations de revenus;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;$&quot;_-;[Red]#,##0.00\ &quot;$&quot;\-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ [$$-C0C]_);\(#,##0.00\ [$$-C0C]\)"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="169" formatCode="##0.00"/>
+  <numFmts count="9">
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;_);\(#,##0.00\ &quot;$&quot;\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;$&quot;_-;[Red]#,##0.00\ &quot;$&quot;\-"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ [$$-C0C]_);\(#,##0.00\ [$$-C0C]\)"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="171" formatCode="##0.00"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -575,6 +605,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -737,6 +768,28 @@
       <i/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF625850"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -965,20 +1018,20 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1015,26 +1068,26 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="19" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1043,10 +1096,10 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1060,58 +1113,22 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="39" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1126,7 +1143,7 @@
     <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1141,7 +1158,7 @@
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1153,11 +1170,8 @@
     <xf numFmtId="4" fontId="25" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1175,7 +1189,7 @@
     <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1190,10 +1204,10 @@
     <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1208,7 +1222,7 @@
     <xf numFmtId="4" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1217,22 +1231,22 @@
     <xf numFmtId="4" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="37" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="37" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="37" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1247,111 +1261,241 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="40" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="170" fontId="39" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="19" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="39" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="50" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="49" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1880,6 +2024,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9217" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88879F45-3B93-992F-6FA3-494DE0145704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2651,14 +2861,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -2679,265 +2889,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
@@ -2967,17 +3177,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="137"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -3084,19 +3294,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
+      <c r="B77" s="139"/>
+      <c r="C77" s="139"/>
+      <c r="D77" s="139"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="144"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -3104,9 +3314,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
+      <c r="B79" s="139"/>
+      <c r="C79" s="139"/>
+      <c r="D79" s="139"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -3141,31 +3351,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
+      <c r="B83" s="142"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="142"/>
+      <c r="E83" s="142"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="136"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="145"/>
+      <c r="F85" s="145"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -3177,26 +3387,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="143"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="B88" s="135"/>
+      <c r="C88" s="135"/>
+      <c r="D88" s="135"/>
+      <c r="E88" s="135"/>
+      <c r="F88" s="135"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
+      <c r="B90" s="140"/>
+      <c r="C90" s="141"/>
+      <c r="D90" s="141"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3206,34 +3416,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3250,6 +3432,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3261,6 +3471,839 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF46969-F9B4-4EB5-AD1D-78CAD3DEC4AD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="63"/>
+      <c r="B21" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63"/>
+      <c r="B25" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63"/>
+      <c r="B26" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="63"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="68"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="159"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="162"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="163"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="164"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="79"/>
+      <c r="B32" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="165"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="79"/>
+      <c r="B34" s="168" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="169"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="79"/>
+      <c r="B35" s="168" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="171"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="79"/>
+      <c r="B36" s="168" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="169"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="79"/>
+      <c r="B37" s="168" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="169"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="79"/>
+      <c r="B38" s="168" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="169"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="79"/>
+      <c r="B39" s="168" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="169"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="79"/>
+      <c r="B40" s="168" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="171"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="79"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="170"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="170"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="79"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="79"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="170"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="170"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="79"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="170"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="79"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="79"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="79"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="170"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="79"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="79"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="170"/>
+      <c r="E49" s="170"/>
+      <c r="F49" s="170"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="79"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="172"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="170"/>
+      <c r="F50" s="170"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="79"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="170"/>
+      <c r="E51" s="170"/>
+      <c r="F51" s="170"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="79"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="79"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="79"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="79"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="79"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="170"/>
+      <c r="E56" s="170"/>
+      <c r="F56" s="170"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="79"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="170"/>
+      <c r="E57" s="170"/>
+      <c r="F57" s="170"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="79"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="170"/>
+      <c r="E58" s="170"/>
+      <c r="F58" s="170"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="79"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="170"/>
+      <c r="E59" s="170"/>
+      <c r="F59" s="170"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="79"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="170"/>
+      <c r="E60" s="170"/>
+      <c r="F60" s="170"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="79"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="170"/>
+      <c r="E61" s="170"/>
+      <c r="F61" s="170"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="79"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="170"/>
+      <c r="F62" s="170"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="79"/>
+      <c r="B63" s="173"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="175"/>
+      <c r="E63" s="170"/>
+      <c r="F63" s="170"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="79"/>
+      <c r="B64" s="173"/>
+      <c r="C64" s="176"/>
+      <c r="D64" s="167"/>
+      <c r="E64" s="170"/>
+      <c r="F64" s="170"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="79"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="177" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="178" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="170"/>
+      <c r="F65" s="170"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="79"/>
+      <c r="B66" s="168"/>
+      <c r="C66" s="179">
+        <v>25.2</v>
+      </c>
+      <c r="D66" s="180">
+        <v>400</v>
+      </c>
+      <c r="E66" s="181"/>
+      <c r="F66" s="181"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="79"/>
+      <c r="B67" s="173"/>
+      <c r="C67" s="179"/>
+      <c r="D67" s="180"/>
+      <c r="E67" s="170"/>
+      <c r="F67" s="170"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="79"/>
+      <c r="B68" s="173"/>
+      <c r="C68" s="182"/>
+      <c r="D68" s="182"/>
+      <c r="E68" s="182"/>
+      <c r="F68" s="79"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="63"/>
+      <c r="B69" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="101"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="102">
+        <v>10080</v>
+      </c>
+      <c r="F69" s="102"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="63"/>
+      <c r="B70" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="105"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="106">
+        <v>0</v>
+      </c>
+      <c r="F70" s="106"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="63"/>
+      <c r="B71" s="183" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="105"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="106">
+        <v>0</v>
+      </c>
+      <c r="F71" s="106"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="63"/>
+      <c r="B72" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="105"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="106">
+        <v>0</v>
+      </c>
+      <c r="F72" s="106"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="63"/>
+      <c r="B73" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="101"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="108">
+        <v>10080</v>
+      </c>
+      <c r="F73" s="108"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="63"/>
+      <c r="B74" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="109">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="105"/>
+      <c r="E74" s="110">
+        <v>504</v>
+      </c>
+      <c r="F74" s="110"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="63"/>
+      <c r="B75" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="112">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="105"/>
+      <c r="E75" s="113">
+        <v>1005.48</v>
+      </c>
+      <c r="F75" s="110"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="63"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="63"/>
+      <c r="B77" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="101"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="118">
+        <v>11589.48</v>
+      </c>
+      <c r="F77" s="119"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="63"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="111"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="63"/>
+      <c r="B79" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="111"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62">
+        <v>0</v>
+      </c>
+      <c r="F79" s="62"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="63"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="120"/>
+      <c r="F80" s="111"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="63"/>
+      <c r="B81" s="184" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="185"/>
+      <c r="D81" s="186"/>
+      <c r="E81" s="187">
+        <v>11589.48</v>
+      </c>
+      <c r="F81" s="62"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="129"/>
+      <c r="B83" s="152"/>
+      <c r="C83" s="153"/>
+      <c r="D83" s="153"/>
+      <c r="E83" s="153"/>
+      <c r="F83" s="188"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="155"/>
+      <c r="C84" s="155"/>
+      <c r="D84" s="155"/>
+      <c r="E84" s="155"/>
+      <c r="F84" s="114"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="157" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="157"/>
+      <c r="C85" s="157"/>
+      <c r="D85" s="157"/>
+      <c r="E85" s="157"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="131"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="47"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="131"/>
+      <c r="B87" s="131"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="131"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="47"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="189"/>
+      <c r="C88" s="189"/>
+      <c r="D88" s="189"/>
+      <c r="E88" s="189"/>
+      <c r="F88" s="189"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3408,14 +4451,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -3436,259 +4479,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
@@ -3718,17 +4761,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
@@ -3835,19 +4878,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="139"/>
+      <c r="D76" s="139"/>
       <c r="E76" s="37"/>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
+      <c r="C77" s="144"/>
+      <c r="D77" s="144"/>
       <c r="E77" s="37">
         <v>0</v>
       </c>
@@ -3855,9 +4898,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
+      <c r="B78" s="139"/>
+      <c r="C78" s="139"/>
+      <c r="D78" s="139"/>
       <c r="E78" s="37"/>
       <c r="F78" s="22"/>
     </row>
@@ -3892,31 +4935,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="142"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="142"/>
       <c r="F82" s="22"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="65" t="s">
+      <c r="A83" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
+      <c r="B83" s="136"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="136"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="61" t="s">
+      <c r="A84" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="145"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="145"/>
+      <c r="F84" s="145"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
@@ -3928,26 +4971,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
       <c r="F86" s="22"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="64" t="s">
+      <c r="A87" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
+      <c r="B87" s="135"/>
+      <c r="C87" s="135"/>
+      <c r="D87" s="135"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="135"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="55"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
+      <c r="B89" s="140"/>
+      <c r="C89" s="141"/>
+      <c r="D89" s="141"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3957,17 +5000,26 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -3980,26 +5032,17 @@
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{6E0D8A2F-444B-41DC-A5C5-5D971698D2F1}">
@@ -4157,14 +5200,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -4185,261 +5228,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
@@ -4469,17 +5512,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
@@ -4586,19 +5629,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="139"/>
+      <c r="D76" s="139"/>
       <c r="E76" s="37"/>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
+      <c r="C77" s="144"/>
+      <c r="D77" s="144"/>
       <c r="E77" s="37">
         <v>0</v>
       </c>
@@ -4606,9 +5649,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
+      <c r="B78" s="139"/>
+      <c r="C78" s="139"/>
+      <c r="D78" s="139"/>
       <c r="E78" s="37"/>
       <c r="F78" s="22"/>
     </row>
@@ -4643,31 +5686,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="142"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="142"/>
       <c r="F82" s="22"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="65" t="s">
+      <c r="A83" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
+      <c r="B83" s="136"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="136"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="61" t="s">
+      <c r="A84" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="145"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="145"/>
+      <c r="F84" s="145"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
@@ -4679,26 +5722,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
       <c r="F86" s="22"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="64" t="s">
+      <c r="A87" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
+      <c r="B87" s="135"/>
+      <c r="C87" s="135"/>
+      <c r="D87" s="135"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="135"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="55"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
+      <c r="B89" s="140"/>
+      <c r="C89" s="141"/>
+      <c r="D89" s="141"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4708,6 +5751,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
@@ -4724,33 +5794,6 @@
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{0A18FFE4-56C6-4CDA-A86F-789FA7EDE764}">
@@ -4772,7 +5815,7 @@
   </sheetPr>
   <dimension ref="A12:F91"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
@@ -4908,14 +5951,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -4936,259 +5979,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
@@ -5218,17 +6261,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
@@ -5335,19 +6378,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="139"/>
+      <c r="D76" s="139"/>
       <c r="E76" s="37"/>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
+      <c r="C77" s="144"/>
+      <c r="D77" s="144"/>
       <c r="E77" s="37">
         <v>0</v>
       </c>
@@ -5355,9 +6398,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
+      <c r="B78" s="139"/>
+      <c r="C78" s="139"/>
+      <c r="D78" s="139"/>
       <c r="E78" s="37"/>
       <c r="F78" s="22"/>
     </row>
@@ -5392,31 +6435,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="142"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="142"/>
       <c r="F82" s="22"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="65" t="s">
+      <c r="A83" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
+      <c r="B83" s="136"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="136"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="61" t="s">
+      <c r="A84" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="145"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="145"/>
+      <c r="F84" s="145"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
@@ -5428,26 +6471,775 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
       <c r="F86" s="22"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="64" t="s">
+      <c r="A87" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
+      <c r="B87" s="135"/>
+      <c r="C87" s="135"/>
+      <c r="D87" s="135"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="135"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="55"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
+      <c r="B89" s="140"/>
+      <c r="C89" s="141"/>
+      <c r="D89" s="141"/>
+    </row>
+    <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{C1DB9641-AAFF-4305-8BDB-EE680A88A2D0}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04400688-DFA3-4FCD-BED8-492A56A5C971}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F91"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="137" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="137" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="137" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="22"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="22"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="22"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="22"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="22"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="22"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="22"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="22"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="22"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="22"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="22"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="47"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="50"/>
+      <c r="F64" s="47"/>
+    </row>
+    <row r="65" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="47"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="52">
+        <v>22.5</v>
+      </c>
+      <c r="D65" s="53">
+        <v>350</v>
+      </c>
+      <c r="E65" s="50"/>
+      <c r="F65" s="47"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="22"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="22"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="22"/>
+      <c r="B68" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="30">
+        <f>D65*C65*0.5</f>
+        <v>3937.5</v>
+      </c>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="22"/>
+      <c r="B69" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="31">
+        <v>0</v>
+      </c>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="22"/>
+      <c r="B70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="31">
+        <v>0</v>
+      </c>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="22"/>
+      <c r="B71" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="30">
+        <f>SUM(E68:E70)</f>
+        <v>3937.5</v>
+      </c>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="22"/>
+      <c r="B72" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D72" s="27"/>
+      <c r="E72" s="36">
+        <f>ROUND(E71*C72,2)</f>
+        <v>196.88</v>
+      </c>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22"/>
+      <c r="B73" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="43">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="44">
+        <f>ROUND(E71*C73,2)</f>
+        <v>392.77</v>
+      </c>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="22"/>
+      <c r="B75" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="34">
+        <f>SUM(E71:E73)</f>
+        <v>4527.1499999999996</v>
+      </c>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="22"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="139"/>
+      <c r="D76" s="139"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="22"/>
+      <c r="B77" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="144"/>
+      <c r="D77" s="144"/>
+      <c r="E77" s="37">
+        <v>0</v>
+      </c>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="22"/>
+      <c r="B78" s="139"/>
+      <c r="C78" s="139"/>
+      <c r="D78" s="139"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="22"/>
+      <c r="B79" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="40">
+        <f>E75-E77</f>
+        <v>4527.1499999999996</v>
+      </c>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="22"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="142"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="142"/>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="136"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="136"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="145" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="145"/>
+      <c r="C84" s="145"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="145"/>
+      <c r="F84" s="145"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="22"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="135"/>
+      <c r="C87" s="135"/>
+      <c r="D87" s="135"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="135"/>
+    </row>
+    <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="140"/>
+      <c r="C89" s="141"/>
+      <c r="D89" s="141"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -5502,7 +7294,7 @@
     <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{C1DB9641-AAFF-4305-8BDB-EE680A88A2D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{C271006F-4A98-4C8F-9F13-64F8774FB1A8}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -5514,15 +7306,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04400688-DFA3-4FCD-BED8-492A56A5C971}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0613FD-52C6-4C57-8574-113BF45A81ED}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A12:F91"/>
+  <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:D48"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5575,7 +7367,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="26" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -5611,7 +7403,7 @@
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="26" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -5644,7 +7436,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F28" s="22"/>
     </row>
@@ -5657,14 +7449,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -5685,331 +7477,323 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="137" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" s="50"/>
-      <c r="F64" s="47"/>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="22"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="47"/>
       <c r="B65" s="48"/>
-      <c r="C65" s="52">
-        <v>22.5</v>
-      </c>
-      <c r="D65" s="53">
-        <v>350</v>
+      <c r="C65" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="E65" s="50"/>
       <c r="F65" s="47"/>
     </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="22"/>
-    </row>
-    <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="47"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="52">
+        <v>8</v>
+      </c>
+      <c r="D66" s="53">
+        <v>350</v>
+      </c>
+      <c r="E66" s="50"/>
+      <c r="F66" s="47"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="30">
-        <f>D65*C65*0.5</f>
-        <v>3937.5</v>
-      </c>
+      <c r="B68" s="137"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="137"/>
+      <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22"/>
-      <c r="B69" s="35" t="s">
-        <v>14</v>
+      <c r="B69" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
-      <c r="E69" s="31">
-        <v>0</v>
+      <c r="E69" s="30">
+        <f>D66*C66</f>
+        <v>2800</v>
       </c>
       <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="22"/>
       <c r="B70" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -6020,118 +7804,122 @@
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="22"/>
-      <c r="B71" s="26" t="s">
-        <v>16</v>
+      <c r="B71" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
-      <c r="E71" s="30">
-        <f>SUM(E68:E70)</f>
-        <v>3937.5</v>
+      <c r="E71" s="31">
+        <v>0</v>
       </c>
       <c r="F71" s="22"/>
     </row>
     <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="22"/>
-      <c r="B72" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="32">
-        <v>0.05</v>
-      </c>
+      <c r="B72" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="27"/>
       <c r="D72" s="27"/>
-      <c r="E72" s="36">
-        <f>ROUND(E71*C72,2)</f>
-        <v>196.88</v>
+      <c r="E72" s="30">
+        <f>SUM(E69:E71)</f>
+        <v>2800</v>
       </c>
       <c r="F72" s="22"/>
     </row>
     <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="22"/>
       <c r="B73" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="43">
-        <v>9.9750000000000005E-2</v>
+        <v>5</v>
+      </c>
+      <c r="C73" s="32">
+        <v>0.05</v>
       </c>
       <c r="D73" s="27"/>
-      <c r="E73" s="44">
-        <f>ROUND(E71*C73,2)</f>
-        <v>392.77</v>
+      <c r="E73" s="36">
+        <f>ROUND(E72*C73,2)</f>
+        <v>140</v>
       </c>
       <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
+      <c r="B74" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="43">
+        <v>9.9750000000000005E-2</v>
+      </c>
       <c r="D74" s="27"/>
-      <c r="E74" s="33"/>
+      <c r="E74" s="44">
+        <f>ROUND(E72*C74,2)</f>
+        <v>279.3</v>
+      </c>
       <c r="F74" s="22"/>
     </row>
-    <row r="75" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
-      <c r="B75" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="B75" s="27"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
-      <c r="E75" s="34">
-        <f>SUM(E71:E73)</f>
-        <v>4527.1499999999996</v>
-      </c>
+      <c r="E75" s="33"/>
       <c r="F75" s="22"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="37"/>
+      <c r="B76" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="34">
+        <f>SUM(E72:E74)</f>
+        <v>3219.3</v>
+      </c>
       <c r="F76" s="22"/>
     </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="37">
-        <v>0</v>
-      </c>
+      <c r="B77" s="139"/>
+      <c r="C77" s="139"/>
+      <c r="D77" s="139"/>
+      <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="37"/>
+      <c r="B78" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="144"/>
+      <c r="D78" s="144"/>
+      <c r="E78" s="37">
+        <v>0</v>
+      </c>
       <c r="F78" s="22"/>
     </row>
-    <row r="79" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="139"/>
+      <c r="C79" s="139"/>
+      <c r="D79" s="139"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="22"/>
+      <c r="B80" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="40">
-        <f>E75-E77</f>
-        <v>4527.1499999999996</v>
-      </c>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="40">
+        <f>E76-E78</f>
+        <v>3219.3</v>
+      </c>
       <c r="F80" s="22"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -6141,78 +7929,847 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
       <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="65" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="22"/>
+      <c r="B83" s="142"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="142"/>
+      <c r="E83" s="142"/>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="61" t="s">
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="136"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="145"/>
+      <c r="F85" s="145"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
       <c r="F86" s="22"/>
     </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="64" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="22"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="22"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-    </row>
-    <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="55"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-    </row>
-    <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
+      <c r="B88" s="135"/>
+      <c r="C88" s="135"/>
+      <c r="D88" s="135"/>
+      <c r="E88" s="135"/>
+      <c r="F88" s="135"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="140"/>
+      <c r="C90" s="141"/>
+      <c r="D90" s="141"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B89:D89"/>
+  <mergeCells count="44">
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B77:D77"/>
     <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{6FAEECCD-03B2-4614-8362-0556321DF5FF}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB1B711-2440-4219-B309-5A6D60F12B0D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="137" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="137" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="22"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="22"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="22"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="22"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="22"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="22"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="22"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="22"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="22"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="22"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="22"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="22"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="47"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="50"/>
+      <c r="F65" s="47"/>
+    </row>
+    <row r="66" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="47"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="52">
+        <v>14.75</v>
+      </c>
+      <c r="D66" s="53">
+        <v>350</v>
+      </c>
+      <c r="E66" s="50"/>
+      <c r="F66" s="47"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="22"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="22"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="137"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="22"/>
+      <c r="B69" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="30">
+        <f>D66*C66</f>
+        <v>5162.5</v>
+      </c>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="22"/>
+      <c r="B70" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="31">
+        <v>0</v>
+      </c>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="22"/>
+      <c r="B71" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="31">
+        <v>0</v>
+      </c>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="22"/>
+      <c r="B72" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="30">
+        <f>SUM(E69:E71)</f>
+        <v>5162.5</v>
+      </c>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22"/>
+      <c r="B73" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="36">
+        <f>ROUND(E72*C73,2)</f>
+        <v>258.13</v>
+      </c>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+      <c r="B74" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="43">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="44">
+        <f>ROUND(E72*C74,2)</f>
+        <v>514.96</v>
+      </c>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="22"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="34">
+        <f>SUM(E72:E74)</f>
+        <v>5935.59</v>
+      </c>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="22"/>
+      <c r="B77" s="139"/>
+      <c r="C77" s="139"/>
+      <c r="D77" s="139"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="22"/>
+      <c r="B78" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="144"/>
+      <c r="D78" s="144"/>
+      <c r="E78" s="37">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="22"/>
+      <c r="B79" s="139"/>
+      <c r="C79" s="139"/>
+      <c r="D79" s="139"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="22"/>
+      <c r="B80" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="40">
+        <f>E76-E78</f>
+        <v>5935.59</v>
+      </c>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="22"/>
+      <c r="B83" s="142"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="142"/>
+      <c r="E83" s="142"/>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="136"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="145" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="145"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="145"/>
+      <c r="F85" s="145"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="22"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="22"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="135"/>
+      <c r="C88" s="135"/>
+      <c r="D88" s="135"/>
+      <c r="E88" s="135"/>
+      <c r="F88" s="135"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="140"/>
+      <c r="C90" s="141"/>
+      <c r="D90" s="141"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
     <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
@@ -6222,9 +8779,9 @@
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B64:D64"/>
     <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B68:D68"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -6249,1520 +8806,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{C271006F-4A98-4C8F-9F13-64F8774FB1A8}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0613FD-52C6-4C57-8574-113BF45A81ED}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="22"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="22"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="50"/>
-      <c r="F65" s="47"/>
-    </row>
-    <row r="66" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="52">
-        <v>8</v>
-      </c>
-      <c r="D66" s="53">
-        <v>350</v>
-      </c>
-      <c r="E66" s="50"/>
-      <c r="F66" s="47"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
-      <c r="B69" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="30">
-        <f>D66*C66</f>
-        <v>2800</v>
-      </c>
-      <c r="F69" s="22"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
-      <c r="B70" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="31">
-        <v>0</v>
-      </c>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
-      <c r="B71" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="31">
-        <v>0</v>
-      </c>
-      <c r="F71" s="22"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="30">
-        <f>SUM(E69:E71)</f>
-        <v>2800</v>
-      </c>
-      <c r="F72" s="22"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-      <c r="B73" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="36">
-        <f>ROUND(E72*C73,2)</f>
-        <v>140</v>
-      </c>
-      <c r="F73" s="22"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="43">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="44">
-        <f>ROUND(E72*C74,2)</f>
-        <v>279.3</v>
-      </c>
-      <c r="F74" s="22"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="22"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="34">
-        <f>SUM(E72:E74)</f>
-        <v>3219.3</v>
-      </c>
-      <c r="F76" s="22"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="22"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="B78" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="37">
-        <v>0</v>
-      </c>
-      <c r="F78" s="22"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
-      <c r="B80" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="40">
-        <f>E76-E78</f>
-        <v>3219.3</v>
-      </c>
-      <c r="F80" s="22"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="22"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="22"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{6FAEECCD-03B2-4614-8362-0556321DF5FF}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB1B711-2440-4219-B309-5A6D60F12B0D}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A45" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="22"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="22"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="50"/>
-      <c r="F65" s="47"/>
-    </row>
-    <row r="66" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="52">
-        <v>14.75</v>
-      </c>
-      <c r="D66" s="53">
-        <v>350</v>
-      </c>
-      <c r="E66" s="50"/>
-      <c r="F66" s="47"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
-      <c r="B69" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="30">
-        <f>D66*C66</f>
-        <v>5162.5</v>
-      </c>
-      <c r="F69" s="22"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
-      <c r="B70" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="31">
-        <v>0</v>
-      </c>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
-      <c r="B71" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="31">
-        <v>0</v>
-      </c>
-      <c r="F71" s="22"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="30">
-        <f>SUM(E69:E71)</f>
-        <v>5162.5</v>
-      </c>
-      <c r="F72" s="22"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-      <c r="B73" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="36">
-        <f>ROUND(E72*C73,2)</f>
-        <v>258.13</v>
-      </c>
-      <c r="F73" s="22"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="43">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="44">
-        <f>ROUND(E72*C74,2)</f>
-        <v>514.96</v>
-      </c>
-      <c r="F74" s="22"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="22"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="34">
-        <f>SUM(E72:E74)</f>
-        <v>5935.59</v>
-      </c>
-      <c r="F76" s="22"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="22"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="B78" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="37">
-        <v>0</v>
-      </c>
-      <c r="F78" s="22"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
-      <c r="B80" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="40">
-        <f>E76-E78</f>
-        <v>5935.59</v>
-      </c>
-      <c r="F80" s="22"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="22"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="22"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{6B5F7EFD-7984-47F7-A506-8A98E3A4A44C}">
@@ -7798,10 +8841,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66"/>
+      <c r="C1" s="146"/>
       <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8223,834 +9266,834 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD202E03-28A6-4F97-83AB-58C3CC936296}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A30" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="51" customWidth="1"/>
     <col min="2" max="2" width="120" style="51" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="157" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="158" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="158" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="134" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="134" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
-      <c r="B24" s="76" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
-      <c r="B25" s="75" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="75" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="79" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="80" t="s">
+      <c r="E28" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="80"/>
+      <c r="F28" s="68"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="72"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
-      <c r="B32" s="88" t="s">
+      <c r="A32" s="74"/>
+      <c r="B32" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="92"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="92"/>
-      <c r="B34" s="94" t="s">
+      <c r="A34" s="79"/>
+      <c r="B34" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="97"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="84"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="92"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="97"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="84"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="92"/>
-      <c r="B36" s="94" t="s">
+      <c r="A36" s="79"/>
+      <c r="B36" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="97"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="84"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="92"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="97"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="84"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="92"/>
-      <c r="B38" s="94" t="s">
+      <c r="A38" s="79"/>
+      <c r="B38" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="97"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="84"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="92"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="97"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="84"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="92"/>
-      <c r="B40" s="94" t="s">
+      <c r="A40" s="79"/>
+      <c r="B40" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="98"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="97"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="84"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="92"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="97"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="84"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="92"/>
-      <c r="B42" s="94" t="s">
+      <c r="A42" s="79"/>
+      <c r="B42" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="97"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="84"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="92"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="97"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="84"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="92"/>
-      <c r="B44" s="94" t="s">
+      <c r="A44" s="79"/>
+      <c r="B44" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="97"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="84"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="92"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="97"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="84"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="92"/>
-      <c r="B46" s="94" t="s">
+      <c r="A46" s="79"/>
+      <c r="B46" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="97"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="84"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="92"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="97"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="84"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="92"/>
-      <c r="B48" s="94" t="s">
+      <c r="A48" s="79"/>
+      <c r="B48" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="97"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="84"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="92"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="97"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="84"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="92"/>
-      <c r="B50" s="94" t="s">
+      <c r="A50" s="79"/>
+      <c r="B50" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="97"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="84"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="92"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="97"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="84"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="92"/>
-      <c r="B52" s="94" t="s">
+      <c r="A52" s="79"/>
+      <c r="B52" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="95"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="97"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="84"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="92"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="97"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="84"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="92"/>
-      <c r="B54" s="94" t="s">
+      <c r="A54" s="79"/>
+      <c r="B54" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="95"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="97"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="84"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="92"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="97"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="84"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="92"/>
-      <c r="B56" s="94" t="s">
+      <c r="A56" s="79"/>
+      <c r="B56" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="95"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="97"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="84"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="92"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="97"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="84"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="92"/>
-      <c r="B58" s="94" t="s">
+      <c r="A58" s="79"/>
+      <c r="B58" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="95"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="97"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="84"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="92"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="97"/>
+      <c r="A59" s="79"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="84"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="92"/>
-      <c r="B60" s="94" t="s">
+      <c r="A60" s="79"/>
+      <c r="B60" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="95"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="97"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="84"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="92"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="97"/>
+      <c r="A61" s="79"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="84"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="92"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="97"/>
+      <c r="A62" s="79"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="84"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="92"/>
-      <c r="B63" s="100"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="97"/>
+      <c r="A63" s="79"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="84"/>
     </row>
     <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="92"/>
-      <c r="B64" s="103"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="92"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="106" t="s">
+      <c r="A65" s="79"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="107" t="s">
+      <c r="D65" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="92"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="108">
+      <c r="A66" s="79"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="95">
         <v>47.65</v>
       </c>
-      <c r="D66" s="109">
+      <c r="D66" s="96">
         <v>350</v>
       </c>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="93"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="111"/>
-      <c r="D67" s="111"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
+      <c r="A67" s="80"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="93"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="93"/>
+      <c r="A68" s="80"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="80"/>
     </row>
     <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="113"/>
-      <c r="B69" s="114" t="s">
+      <c r="A69" s="100"/>
+      <c r="B69" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="114"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="115">
+      <c r="C69" s="101"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="102">
         <v>16677.5</v>
       </c>
-      <c r="F69" s="116"/>
+      <c r="F69" s="103"/>
     </row>
     <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="113"/>
-      <c r="B70" s="117" t="s">
+      <c r="A70" s="100"/>
+      <c r="B70" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="118"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="119">
+      <c r="C70" s="105"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="106">
         <v>0</v>
       </c>
-      <c r="F70" s="119"/>
+      <c r="F70" s="106"/>
     </row>
     <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="113"/>
-      <c r="B71" s="120" t="s">
+      <c r="A71" s="100"/>
+      <c r="B71" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="C71" s="118"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="119">
+      <c r="C71" s="105"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="106">
         <v>0</v>
       </c>
-      <c r="F71" s="119"/>
+      <c r="F71" s="106"/>
     </row>
     <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="113"/>
-      <c r="B72" s="120" t="s">
+      <c r="A72" s="100"/>
+      <c r="B72" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="118"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="119">
+      <c r="C72" s="105"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="106">
         <v>0</v>
       </c>
-      <c r="F72" s="119"/>
+      <c r="F72" s="106"/>
     </row>
     <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="113"/>
-      <c r="B73" s="72" t="s">
+      <c r="A73" s="100"/>
+      <c r="B73" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="114"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="121">
+      <c r="C73" s="101"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="108">
         <v>16677.5</v>
       </c>
-      <c r="F73" s="121"/>
+      <c r="F73" s="108"/>
     </row>
     <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="113"/>
-      <c r="B74" s="118" t="s">
+      <c r="A74" s="100"/>
+      <c r="B74" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="122">
+      <c r="C74" s="109">
         <v>0.05</v>
       </c>
-      <c r="D74" s="118"/>
-      <c r="E74" s="123">
+      <c r="D74" s="105"/>
+      <c r="E74" s="110">
         <v>833.88</v>
       </c>
-      <c r="F74" s="123"/>
+      <c r="F74" s="110"/>
     </row>
     <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="113"/>
-      <c r="B75" s="124" t="s">
+      <c r="A75" s="100"/>
+      <c r="B75" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="125">
+      <c r="C75" s="112">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="D75" s="118"/>
-      <c r="E75" s="126">
+      <c r="D75" s="105"/>
+      <c r="E75" s="113">
         <v>1663.58</v>
       </c>
-      <c r="F75" s="123"/>
+      <c r="F75" s="110"/>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="113"/>
-      <c r="B76" s="127"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="128"/>
+      <c r="A76" s="100"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="115"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="113"/>
-      <c r="B77" s="129" t="s">
+      <c r="A77" s="100"/>
+      <c r="B77" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="114"/>
-      <c r="D77" s="130"/>
-      <c r="E77" s="131">
+      <c r="C77" s="101"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="118">
         <v>19174.96</v>
       </c>
-      <c r="F77" s="132"/>
+      <c r="F77" s="119"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="113"/>
-      <c r="B78" s="124"/>
-      <c r="C78" s="124"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="133"/>
-      <c r="F78" s="134"/>
+      <c r="A78" s="100"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="121"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="113"/>
-      <c r="B79" s="127" t="s">
+      <c r="A79" s="100"/>
+      <c r="B79" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="124"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="74">
+      <c r="C79" s="111"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62">
         <v>0</v>
       </c>
-      <c r="F79" s="128"/>
+      <c r="F79" s="115"/>
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="113"/>
-      <c r="B80" s="135"/>
-      <c r="C80" s="134"/>
-      <c r="D80" s="136"/>
-      <c r="E80" s="137"/>
-      <c r="F80" s="136"/>
+      <c r="A80" s="100"/>
+      <c r="B80" s="122"/>
+      <c r="C80" s="121"/>
+      <c r="D80" s="123"/>
+      <c r="E80" s="124"/>
+      <c r="F80" s="123"/>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="75"/>
-      <c r="B81" s="138" t="s">
+      <c r="A81" s="63"/>
+      <c r="B81" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="139"/>
-      <c r="D81" s="140"/>
-      <c r="E81" s="141">
+      <c r="C81" s="151"/>
+      <c r="D81" s="125"/>
+      <c r="E81" s="126">
         <v>19174.96</v>
       </c>
-      <c r="F81" s="142"/>
+      <c r="F81" s="127"/>
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="75"/>
-      <c r="B82" s="75"/>
-      <c r="C82" s="75"/>
-      <c r="D82" s="143"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="142"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="128"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="127"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="144"/>
-      <c r="B83" s="145"/>
-      <c r="C83" s="146"/>
-      <c r="D83" s="147"/>
-      <c r="E83" s="147"/>
-      <c r="F83" s="148"/>
+      <c r="A83" s="129"/>
+      <c r="B83" s="152"/>
+      <c r="C83" s="153"/>
+      <c r="D83" s="154"/>
+      <c r="E83" s="154"/>
+      <c r="F83" s="130"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="149" t="s">
+      <c r="A84" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="149"/>
-      <c r="C84" s="149"/>
-      <c r="D84" s="150"/>
-      <c r="E84" s="150"/>
-      <c r="F84" s="67"/>
+      <c r="B84" s="155"/>
+      <c r="C84" s="155"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="156"/>
+      <c r="F84" s="55"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="151" t="s">
+      <c r="A85" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="151"/>
-      <c r="C85" s="151"/>
-      <c r="D85" s="152"/>
-      <c r="E85" s="152"/>
+      <c r="B85" s="157"/>
+      <c r="C85" s="157"/>
+      <c r="D85" s="158"/>
+      <c r="E85" s="158"/>
       <c r="F85" s="51"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="153"/>
-      <c r="B86" s="153"/>
-      <c r="C86" s="153"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
+      <c r="A86" s="131"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
       <c r="F86" s="51"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="153"/>
-      <c r="B87" s="153"/>
-      <c r="C87" s="153"/>
-      <c r="D87" s="154"/>
-      <c r="E87" s="154"/>
+      <c r="A87" s="131"/>
+      <c r="B87" s="131"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
       <c r="F87" s="51"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="B88" s="135"/>
+      <c r="C88" s="135"/>
+      <c r="D88" s="135"/>
+      <c r="E88" s="135"/>
+      <c r="F88" s="135"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="75"/>
-      <c r="B89" s="155"/>
-      <c r="C89" s="155"/>
-      <c r="D89" s="156"/>
-      <c r="E89" s="156"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="147"/>
+      <c r="C89" s="147"/>
+      <c r="D89" s="148"/>
+      <c r="E89" s="148"/>
       <c r="F89" s="51"/>
     </row>
   </sheetData>

--- a/Factures_Excel/1546 - Publipage.xlsx
+++ b/Factures_Excel/1546 - Publipage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFB54A0-7B32-45BD-BC6F-6600A671D8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3474020B-D273-42C1-BBD6-61C7FC8ACAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15-12-20" sheetId="4" r:id="rId1"/>
@@ -22,10 +22,13 @@
     <sheet name="26-05-24" sheetId="11" r:id="rId7"/>
     <sheet name="Activités" sheetId="5" r:id="rId8"/>
     <sheet name="2024-09-06 - 24-24493" sheetId="12" r:id="rId9"/>
-    <sheet name="2025-03-01 - 25-24756" sheetId="13" r:id="rId10"/>
+    <sheet name="2025-03-01 - 25-24756 " sheetId="14" r:id="rId10"/>
+    <sheet name="2025-03-01 - 25-24756A" sheetId="13" r:id="rId11"/>
+    <sheet name="2025-03-01 - 25-24756B" sheetId="15" r:id="rId12"/>
+    <sheet name="2025-04-05 - 25-24905" sheetId="16" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -42,7 +45,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'09-12-23 (2)'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'11-12-21'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'15-12-20'!$A$1:$F$89</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'2025-03-01 - 25-24756'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'2025-03-01 - 25-24756 '!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'2025-03-01 - 25-24756A'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'2025-03-01 - 25-24756B'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-04-05 - 25-24905'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'21-12-22'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'26-05-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'28-03-24'!$A$1:$F$89</definedName>
@@ -64,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="135">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -437,6 +443,39 @@
   </si>
   <si>
     <t xml:space="preserve"> - Recherches et analyses fiscales requises pour produire les différentes déclarations de revenus;</t>
+  </si>
+  <si>
+    <t>25-24756A</t>
+  </si>
+  <si>
+    <t>25-24756B</t>
+  </si>
+  <si>
+    <t>13985890 CANADA INC</t>
+  </si>
+  <si>
+    <t>Le 5 AVRIL 2025</t>
+  </si>
+  <si>
+    <t>GAÉTAN FRIGON</t>
+  </si>
+  <si>
+    <t>FIDUCIE FRIGON FILS &amp; FILLE</t>
+  </si>
+  <si>
+    <t>25-24905</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation des déclarations de revenus ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail additionnel pour fournir les PBR et CV de toutes les actions détenues ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail additionnel différentes annexes ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lecture et rédaction de divers courriels ;</t>
   </si>
 </sst>
 </file>
@@ -794,7 +833,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,6 +855,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +1069,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1334,6 +1379,86 @@
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="50" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="49" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1406,96 +1531,20 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="50" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="49" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1639,6 +1688,204 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9217" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88879F45-3B93-992F-6FA3-494DE0145704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3A5C7D-CE95-4440-A8BA-DE42C43748A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12289" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03AF765-52D2-AF6E-D3B4-22D882B03D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2048,10 +2295,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9217" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88879F45-3B93-992F-6FA3-494DE0145704}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3411564D-4827-481A-AAEF-85E33F794400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,14 +3108,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -2889,265 +3136,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="137" t="s">
+      <c r="B35" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="137"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="137"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
@@ -3177,17 +3424,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="137"/>
-      <c r="C68" s="137"/>
-      <c r="D68" s="137"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -3294,19 +3541,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="139"/>
-      <c r="C77" s="139"/>
-      <c r="D77" s="139"/>
+      <c r="B77" s="167"/>
+      <c r="C77" s="167"/>
+      <c r="D77" s="167"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="144" t="s">
+      <c r="B78" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="144"/>
-      <c r="D78" s="144"/>
+      <c r="C78" s="172"/>
+      <c r="D78" s="172"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -3314,9 +3561,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="139"/>
-      <c r="C79" s="139"/>
-      <c r="D79" s="139"/>
+      <c r="B79" s="167"/>
+      <c r="C79" s="167"/>
+      <c r="D79" s="167"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -3351,31 +3598,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="142"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="142"/>
-      <c r="E83" s="142"/>
+      <c r="B83" s="170"/>
+      <c r="C83" s="170"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="136" t="s">
+      <c r="A84" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="136"/>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="136"/>
-      <c r="F84" s="136"/>
+      <c r="B84" s="164"/>
+      <c r="C84" s="164"/>
+      <c r="D84" s="164"/>
+      <c r="E84" s="164"/>
+      <c r="F84" s="164"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="145" t="s">
+      <c r="A85" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="145"/>
-      <c r="C85" s="145"/>
-      <c r="D85" s="145"/>
-      <c r="E85" s="145"/>
-      <c r="F85" s="145"/>
+      <c r="B85" s="173"/>
+      <c r="C85" s="173"/>
+      <c r="D85" s="173"/>
+      <c r="E85" s="173"/>
+      <c r="F85" s="173"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -3387,26 +3634,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
+      <c r="B87" s="171"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="135" t="s">
+      <c r="A88" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="135"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
-      <c r="E88" s="135"/>
-      <c r="F88" s="135"/>
+      <c r="B88" s="163"/>
+      <c r="C88" s="163"/>
+      <c r="D88" s="163"/>
+      <c r="E88" s="163"/>
+      <c r="F88" s="163"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="140"/>
-      <c r="C90" s="141"/>
-      <c r="D90" s="141"/>
+      <c r="B90" s="168"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="169"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3476,7 +3723,2528 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F89ED31-6EA5-4262-A5C5-063F05077CC9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="63"/>
+      <c r="B21" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63"/>
+      <c r="B25" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63"/>
+      <c r="B26" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="63"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="68"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="135"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="188"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="138"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="139"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="79"/>
+      <c r="B32" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="140"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="79"/>
+      <c r="B34" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="79"/>
+      <c r="B35" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="146"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="79"/>
+      <c r="B36" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="79"/>
+      <c r="B37" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="79"/>
+      <c r="B38" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="79"/>
+      <c r="B39" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="79"/>
+      <c r="B40" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="146"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="79"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="79"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="79"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="79"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="79"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="79"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="79"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="79"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="79"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="79"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="79"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="79"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="79"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="79"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="79"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="79"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="79"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="79"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="79"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="79"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="79"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="79"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="79"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="79"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="151"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="79"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="152" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="153" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="79"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="154">
+        <v>25.2</v>
+      </c>
+      <c r="D66" s="155">
+        <v>400</v>
+      </c>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="79"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="155"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="79"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="157"/>
+      <c r="D68" s="157"/>
+      <c r="E68" s="157"/>
+      <c r="F68" s="79"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="63"/>
+      <c r="B69" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="101"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="102">
+        <v>10080</v>
+      </c>
+      <c r="F69" s="102"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="63"/>
+      <c r="B70" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="105"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="106">
+        <v>0</v>
+      </c>
+      <c r="F70" s="106"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="63"/>
+      <c r="B71" s="158" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="105"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="106">
+        <v>0</v>
+      </c>
+      <c r="F71" s="106"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="63"/>
+      <c r="B72" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="105"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="106">
+        <v>0</v>
+      </c>
+      <c r="F72" s="106"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="63"/>
+      <c r="B73" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="101"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="108">
+        <v>10080</v>
+      </c>
+      <c r="F73" s="108"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="63"/>
+      <c r="B74" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="109">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="105"/>
+      <c r="E74" s="110">
+        <v>504</v>
+      </c>
+      <c r="F74" s="110"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="63"/>
+      <c r="B75" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="112">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="105"/>
+      <c r="E75" s="113">
+        <v>1005.48</v>
+      </c>
+      <c r="F75" s="110"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="63"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="63"/>
+      <c r="B77" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="101"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="118">
+        <v>11589.48</v>
+      </c>
+      <c r="F77" s="119"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="63"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="111"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="63"/>
+      <c r="B79" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="111"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62">
+        <v>0</v>
+      </c>
+      <c r="F79" s="62"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="63"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="120"/>
+      <c r="F80" s="111"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="63"/>
+      <c r="B81" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="190"/>
+      <c r="D81" s="159"/>
+      <c r="E81" s="160">
+        <v>11589.48</v>
+      </c>
+      <c r="F81" s="62"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="129"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="181"/>
+      <c r="D83" s="181"/>
+      <c r="E83" s="181"/>
+      <c r="F83" s="161"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="183"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
+      <c r="F84" s="114"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="185"/>
+      <c r="C85" s="185"/>
+      <c r="D85" s="185"/>
+      <c r="E85" s="185"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="131"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="47"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="131"/>
+      <c r="B87" s="131"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="131"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="47"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF46969-F9B4-4EB5-AD1D-78CAD3DEC4AD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="63"/>
+      <c r="B21" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63"/>
+      <c r="B25" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63"/>
+      <c r="B26" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="63"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="68"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="135"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="188"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="138"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="139"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="79"/>
+      <c r="B32" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="140"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="79"/>
+      <c r="B34" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="79"/>
+      <c r="B35" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="146"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="79"/>
+      <c r="B36" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="79"/>
+      <c r="B37" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="79"/>
+      <c r="B38" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="79"/>
+      <c r="B39" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="79"/>
+      <c r="B40" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="146"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="79"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="79"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="79"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="79"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="79"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="79"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="79"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="79"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="79"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="79"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="79"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="79"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="79"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="79"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="79"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="79"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="79"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="79"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="79"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="79"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="79"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="79"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="79"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="79"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="151"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="79"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="152" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="153" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="79"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="154">
+        <f>25.2/2</f>
+        <v>12.6</v>
+      </c>
+      <c r="D66" s="155">
+        <v>400</v>
+      </c>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="79"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="155"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="79"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="157"/>
+      <c r="D68" s="157"/>
+      <c r="E68" s="157"/>
+      <c r="F68" s="79"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="63"/>
+      <c r="B69" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="101"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="102">
+        <f>C66*D66</f>
+        <v>5040</v>
+      </c>
+      <c r="F69" s="102"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="63"/>
+      <c r="B70" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="105"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="106">
+        <v>0</v>
+      </c>
+      <c r="F70" s="106"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="63"/>
+      <c r="B71" s="158" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="105"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="106">
+        <v>0</v>
+      </c>
+      <c r="F71" s="106"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="63"/>
+      <c r="B72" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="105"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="106">
+        <v>0</v>
+      </c>
+      <c r="F72" s="106"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="63"/>
+      <c r="B73" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="101"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="108">
+        <f>SUM(E69:E72)</f>
+        <v>5040</v>
+      </c>
+      <c r="F73" s="108"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="63"/>
+      <c r="B74" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="109">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="105"/>
+      <c r="E74" s="110">
+        <f>ROUND(C74*E73,2)</f>
+        <v>252</v>
+      </c>
+      <c r="F74" s="110"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="63"/>
+      <c r="B75" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="112">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="105"/>
+      <c r="E75" s="113">
+        <f>ROUND(E73*C75,2)</f>
+        <v>502.74</v>
+      </c>
+      <c r="F75" s="110"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="63"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="63"/>
+      <c r="B77" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="101"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="118">
+        <f>SUM(E73:E75)</f>
+        <v>5794.74</v>
+      </c>
+      <c r="F77" s="119"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="63"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="111"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="63"/>
+      <c r="B79" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="111"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62">
+        <v>0</v>
+      </c>
+      <c r="F79" s="62"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="63"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="120"/>
+      <c r="F80" s="111"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="63"/>
+      <c r="B81" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="190"/>
+      <c r="D81" s="159"/>
+      <c r="E81" s="160">
+        <f>E77-E79</f>
+        <v>5794.74</v>
+      </c>
+      <c r="F81" s="62"/>
+      <c r="H81" s="162">
+        <f>E77*2</f>
+        <v>11589.48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="129"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="181"/>
+      <c r="D83" s="181"/>
+      <c r="E83" s="181"/>
+      <c r="F83" s="161"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="183"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
+      <c r="F84" s="114"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="185"/>
+      <c r="C85" s="185"/>
+      <c r="D85" s="185"/>
+      <c r="E85" s="185"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="131"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="47"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="131"/>
+      <c r="B87" s="131"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="131"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="47"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3623AD4D-62F2-47E1-BD71-81E5B03710BE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="63"/>
+      <c r="B21" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63"/>
+      <c r="B25" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63"/>
+      <c r="B26" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="63"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="68"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="135"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="188"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="138"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="139"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="79"/>
+      <c r="B32" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="140"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="79"/>
+      <c r="B34" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="79"/>
+      <c r="B35" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="146"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="79"/>
+      <c r="B36" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="79"/>
+      <c r="B37" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="79"/>
+      <c r="B38" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="79"/>
+      <c r="B39" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="79"/>
+      <c r="B40" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="146"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="79"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="79"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="79"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="79"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="79"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="79"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="79"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="79"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="79"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="79"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="79"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="79"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="79"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="79"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="79"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="79"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="79"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="79"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="79"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="79"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="79"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="79"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="79"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="79"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="151"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="79"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="152" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="153" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="79"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="154">
+        <f>25.2/2</f>
+        <v>12.6</v>
+      </c>
+      <c r="D66" s="155">
+        <v>400</v>
+      </c>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="79"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="155"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="79"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="157"/>
+      <c r="D68" s="157"/>
+      <c r="E68" s="157"/>
+      <c r="F68" s="79"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="63"/>
+      <c r="B69" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="101"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="102">
+        <f>C66*D66</f>
+        <v>5040</v>
+      </c>
+      <c r="F69" s="102"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="63"/>
+      <c r="B70" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="105"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="106">
+        <v>0</v>
+      </c>
+      <c r="F70" s="106"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="63"/>
+      <c r="B71" s="158" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="105"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="106">
+        <v>0</v>
+      </c>
+      <c r="F71" s="106"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="63"/>
+      <c r="B72" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="105"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="106">
+        <v>0</v>
+      </c>
+      <c r="F72" s="106"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="63"/>
+      <c r="B73" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="101"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="108">
+        <f>SUM(E69:E72)</f>
+        <v>5040</v>
+      </c>
+      <c r="F73" s="108"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="63"/>
+      <c r="B74" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="109">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="105"/>
+      <c r="E74" s="110">
+        <f>ROUND(C74*E73,2)</f>
+        <v>252</v>
+      </c>
+      <c r="F74" s="110"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="63"/>
+      <c r="B75" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="112">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="105"/>
+      <c r="E75" s="113">
+        <f>ROUND(E73*C75,2)</f>
+        <v>502.74</v>
+      </c>
+      <c r="F75" s="110"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="63"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="63"/>
+      <c r="B77" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="101"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="118">
+        <f>SUM(E73:E75)</f>
+        <v>5794.74</v>
+      </c>
+      <c r="F77" s="119"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="63"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="111"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="63"/>
+      <c r="B79" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="111"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62">
+        <v>0</v>
+      </c>
+      <c r="F79" s="62"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="63"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="120"/>
+      <c r="F80" s="111"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="63"/>
+      <c r="B81" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="190"/>
+      <c r="D81" s="159"/>
+      <c r="E81" s="160">
+        <f>E77-E79</f>
+        <v>5794.74</v>
+      </c>
+      <c r="F81" s="62"/>
+      <c r="H81" s="162">
+        <f>E77*2</f>
+        <v>11589.48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="129"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="181"/>
+      <c r="D83" s="181"/>
+      <c r="E83" s="181"/>
+      <c r="F83" s="161"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="183"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
+      <c r="F84" s="114"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="185"/>
+      <c r="C85" s="185"/>
+      <c r="D85" s="185"/>
+      <c r="E85" s="185"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="131"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="47"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="131"/>
+      <c r="B87" s="131"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="131"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="47"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE2227C-F6A8-4C10-9B67-74B9B4B99A85}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3564,7 +6332,7 @@
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
+      <c r="D9" s="191"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
     </row>
@@ -3659,7 +6427,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="63"/>
       <c r="B21" s="60" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="61"/>
@@ -3677,7 +6445,7 @@
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="63"/>
       <c r="B23" s="60" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C23" s="60"/>
       <c r="D23" s="61"/>
@@ -3687,7 +6455,7 @@
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="63"/>
       <c r="B24" s="64" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C24" s="63"/>
       <c r="D24" s="61"/>
@@ -3732,354 +6500,346 @@
         <v>13</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F28" s="68"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="159"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="162" t="s">
+      <c r="A30" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="162"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="163"/>
+      <c r="B30" s="188"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="138"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="164"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="79"/>
       <c r="B32" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="165"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="79"/>
       <c r="B33" s="79"/>
       <c r="C33" s="79"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="79"/>
-      <c r="B34" s="168" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
+      <c r="B34" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="79"/>
-      <c r="B35" s="168" t="s">
+      <c r="B35" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="171"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="79"/>
-      <c r="B36" s="168" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
+      <c r="B36" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="79"/>
-      <c r="B37" s="168" t="s">
+      <c r="B37" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="169"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="79"/>
-      <c r="B38" s="168" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
+      <c r="B38" s="143" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="79"/>
-      <c r="B39" s="168" t="s">
+      <c r="B39" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="169"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="79"/>
-      <c r="B40" s="168" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="171"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
+      <c r="B40" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="146"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="79"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="79"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="79"/>
-      <c r="B43" s="168"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="79"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="79"/>
-      <c r="B45" s="168"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="79"/>
-      <c r="B46" s="168"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="170"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="79"/>
-      <c r="B47" s="168"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="79"/>
-      <c r="B48" s="168"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="79"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="170"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="170"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="79"/>
-      <c r="B50" s="168"/>
-      <c r="C50" s="172"/>
-      <c r="D50" s="172"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="170"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="79"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="170"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="79"/>
-      <c r="B52" s="168"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="79"/>
-      <c r="B53" s="168"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="170"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="79"/>
-      <c r="B54" s="168"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="79"/>
-      <c r="B55" s="168"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
-      <c r="F55" s="170"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="79"/>
-      <c r="B56" s="168"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="170"/>
-      <c r="F56" s="170"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="79"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="170"/>
-      <c r="E57" s="170"/>
-      <c r="F57" s="170"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="79"/>
-      <c r="B58" s="168"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="170"/>
-      <c r="F58" s="170"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="79"/>
-      <c r="B59" s="168"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="170"/>
-      <c r="F59" s="170"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="79"/>
-      <c r="B60" s="168"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="170"/>
-      <c r="E60" s="170"/>
-      <c r="F60" s="170"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="79"/>
-      <c r="B61" s="168"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="170"/>
-      <c r="F61" s="170"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="79"/>
-      <c r="B62" s="168"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="170"/>
-      <c r="F62" s="170"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="79"/>
-      <c r="B63" s="173"/>
-      <c r="C63" s="174"/>
-      <c r="D63" s="175"/>
-      <c r="E63" s="170"/>
-      <c r="F63" s="170"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="79"/>
-      <c r="B64" s="173"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="167"/>
-      <c r="E64" s="170"/>
-      <c r="F64" s="170"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="151"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="79"/>
-      <c r="B65" s="168"/>
-      <c r="C65" s="177" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="178" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="170"/>
-      <c r="F65" s="170"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="153"/>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="79"/>
-      <c r="B66" s="168"/>
-      <c r="C66" s="179">
-        <v>25.2</v>
-      </c>
-      <c r="D66" s="180">
-        <v>400</v>
-      </c>
-      <c r="E66" s="181"/>
-      <c r="F66" s="181"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="154"/>
+      <c r="D66" s="155"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="79"/>
-      <c r="B67" s="173"/>
-      <c r="C67" s="179"/>
-      <c r="D67" s="180"/>
-      <c r="E67" s="170"/>
-      <c r="F67" s="170"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="155"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="79"/>
-      <c r="B68" s="173"/>
-      <c r="C68" s="182"/>
-      <c r="D68" s="182"/>
-      <c r="E68" s="182"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="157"/>
+      <c r="D68" s="157"/>
+      <c r="E68" s="157"/>
       <c r="F68" s="79"/>
     </row>
     <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4090,7 +6850,7 @@
       <c r="C69" s="101"/>
       <c r="D69" s="61"/>
       <c r="E69" s="102">
-        <v>10080</v>
+        <v>2021.25</v>
       </c>
       <c r="F69" s="102"/>
     </row>
@@ -4102,13 +6862,13 @@
       <c r="C70" s="105"/>
       <c r="D70" s="61"/>
       <c r="E70" s="106">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F70" s="106"/>
     </row>
     <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="63"/>
-      <c r="B71" s="183" t="s">
+      <c r="B71" s="158" t="s">
         <v>114</v>
       </c>
       <c r="C71" s="105"/>
@@ -4120,7 +6880,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="63"/>
-      <c r="B72" s="183" t="s">
+      <c r="B72" s="158" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="105"/>
@@ -4138,7 +6898,7 @@
       <c r="C73" s="101"/>
       <c r="D73" s="61"/>
       <c r="E73" s="108">
-        <v>10080</v>
+        <v>2041.25</v>
       </c>
       <c r="F73" s="108"/>
     </row>
@@ -4152,7 +6912,7 @@
       </c>
       <c r="D74" s="105"/>
       <c r="E74" s="110">
-        <v>504</v>
+        <v>102.06</v>
       </c>
       <c r="F74" s="110"/>
     </row>
@@ -4166,7 +6926,7 @@
       </c>
       <c r="D75" s="105"/>
       <c r="E75" s="113">
-        <v>1005.48</v>
+        <v>203.61</v>
       </c>
       <c r="F75" s="110"/>
     </row>
@@ -4186,7 +6946,7 @@
       <c r="C77" s="101"/>
       <c r="D77" s="117"/>
       <c r="E77" s="118">
-        <v>11589.48</v>
+        <v>2346.92</v>
       </c>
       <c r="F77" s="119"/>
     </row>
@@ -4220,13 +6980,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="63"/>
-      <c r="B81" s="184" t="s">
+      <c r="B81" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="185"/>
-      <c r="D81" s="186"/>
-      <c r="E81" s="187">
-        <v>11589.48</v>
+      <c r="C81" s="190"/>
+      <c r="D81" s="159"/>
+      <c r="E81" s="160">
+        <v>2346.92</v>
       </c>
       <c r="F81" s="62"/>
     </row>
@@ -4240,30 +7000,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="129"/>
-      <c r="B83" s="152"/>
-      <c r="C83" s="153"/>
-      <c r="D83" s="153"/>
-      <c r="E83" s="153"/>
-      <c r="F83" s="188"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="181"/>
+      <c r="D83" s="181"/>
+      <c r="E83" s="181"/>
+      <c r="F83" s="161"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="155" t="s">
+      <c r="A84" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="155"/>
-      <c r="C84" s="155"/>
-      <c r="D84" s="155"/>
-      <c r="E84" s="155"/>
+      <c r="B84" s="183"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
       <c r="F84" s="114"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="157" t="s">
+      <c r="A85" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="157"/>
-      <c r="C85" s="157"/>
-      <c r="D85" s="157"/>
-      <c r="E85" s="157"/>
+      <c r="B85" s="185"/>
+      <c r="C85" s="185"/>
+      <c r="D85" s="185"/>
+      <c r="E85" s="185"/>
       <c r="F85" s="47"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4283,14 +7043,14 @@
       <c r="F87" s="47"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="189" t="s">
+      <c r="A88" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="189"/>
-      <c r="C88" s="189"/>
-      <c r="D88" s="189"/>
-      <c r="E88" s="189"/>
-      <c r="F88" s="189"/>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4451,14 +7211,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -4479,259 +7239,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="137" t="s">
+      <c r="B35" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
@@ -4761,17 +7521,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="137"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="137"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
@@ -4878,19 +7638,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
-      <c r="B76" s="139"/>
-      <c r="C76" s="139"/>
-      <c r="D76" s="139"/>
+      <c r="B76" s="167"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
       <c r="E76" s="37"/>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="144" t="s">
+      <c r="B77" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="144"/>
-      <c r="D77" s="144"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="37">
         <v>0</v>
       </c>
@@ -4898,9 +7658,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="139"/>
-      <c r="C78" s="139"/>
-      <c r="D78" s="139"/>
+      <c r="B78" s="167"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="167"/>
       <c r="E78" s="37"/>
       <c r="F78" s="22"/>
     </row>
@@ -4935,31 +7695,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
-      <c r="B82" s="142"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142"/>
+      <c r="B82" s="170"/>
+      <c r="C82" s="170"/>
+      <c r="D82" s="170"/>
+      <c r="E82" s="170"/>
       <c r="F82" s="22"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="136" t="s">
+      <c r="A83" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="164"/>
+      <c r="D83" s="164"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="164"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="145" t="s">
+      <c r="A84" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="145"/>
-      <c r="C84" s="145"/>
-      <c r="D84" s="145"/>
-      <c r="E84" s="145"/>
-      <c r="F84" s="145"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
@@ -4971,26 +7731,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
-      <c r="B86" s="143"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="143"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
       <c r="F86" s="22"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="135" t="s">
+      <c r="A87" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="135"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="135"/>
+      <c r="B87" s="163"/>
+      <c r="C87" s="163"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="163"/>
+      <c r="F87" s="163"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="140"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
+      <c r="B89" s="168"/>
+      <c r="C89" s="169"/>
+      <c r="D89" s="169"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -5200,14 +7960,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -5228,261 +7988,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="137" t="s">
+      <c r="B35" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
@@ -5512,17 +8272,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="137"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="137"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
@@ -5629,19 +8389,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
-      <c r="B76" s="139"/>
-      <c r="C76" s="139"/>
-      <c r="D76" s="139"/>
+      <c r="B76" s="167"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
       <c r="E76" s="37"/>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="144" t="s">
+      <c r="B77" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="144"/>
-      <c r="D77" s="144"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="37">
         <v>0</v>
       </c>
@@ -5649,9 +8409,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="139"/>
-      <c r="C78" s="139"/>
-      <c r="D78" s="139"/>
+      <c r="B78" s="167"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="167"/>
       <c r="E78" s="37"/>
       <c r="F78" s="22"/>
     </row>
@@ -5686,31 +8446,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
-      <c r="B82" s="142"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142"/>
+      <c r="B82" s="170"/>
+      <c r="C82" s="170"/>
+      <c r="D82" s="170"/>
+      <c r="E82" s="170"/>
       <c r="F82" s="22"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="136" t="s">
+      <c r="A83" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="164"/>
+      <c r="D83" s="164"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="164"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="145" t="s">
+      <c r="A84" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="145"/>
-      <c r="C84" s="145"/>
-      <c r="D84" s="145"/>
-      <c r="E84" s="145"/>
-      <c r="F84" s="145"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
@@ -5722,26 +8482,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
-      <c r="B86" s="143"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="143"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
       <c r="F86" s="22"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="135" t="s">
+      <c r="A87" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="135"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="135"/>
+      <c r="B87" s="163"/>
+      <c r="C87" s="163"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="163"/>
+      <c r="F87" s="163"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="140"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
+      <c r="B89" s="168"/>
+      <c r="C89" s="169"/>
+      <c r="D89" s="169"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -5951,14 +8711,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -5979,259 +8739,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="137" t="s">
+      <c r="B35" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
@@ -6261,17 +9021,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="137"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="137"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
@@ -6378,19 +9138,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
-      <c r="B76" s="139"/>
-      <c r="C76" s="139"/>
-      <c r="D76" s="139"/>
+      <c r="B76" s="167"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
       <c r="E76" s="37"/>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="144" t="s">
+      <c r="B77" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="144"/>
-      <c r="D77" s="144"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="37">
         <v>0</v>
       </c>
@@ -6398,9 +9158,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="139"/>
-      <c r="C78" s="139"/>
-      <c r="D78" s="139"/>
+      <c r="B78" s="167"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="167"/>
       <c r="E78" s="37"/>
       <c r="F78" s="22"/>
     </row>
@@ -6435,31 +9195,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
-      <c r="B82" s="142"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142"/>
+      <c r="B82" s="170"/>
+      <c r="C82" s="170"/>
+      <c r="D82" s="170"/>
+      <c r="E82" s="170"/>
       <c r="F82" s="22"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="136" t="s">
+      <c r="A83" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="164"/>
+      <c r="D83" s="164"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="164"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="145" t="s">
+      <c r="A84" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="145"/>
-      <c r="C84" s="145"/>
-      <c r="D84" s="145"/>
-      <c r="E84" s="145"/>
-      <c r="F84" s="145"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
@@ -6471,26 +9231,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
-      <c r="B86" s="143"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="143"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
       <c r="F86" s="22"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="135" t="s">
+      <c r="A87" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="135"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="135"/>
+      <c r="B87" s="163"/>
+      <c r="C87" s="163"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="163"/>
+      <c r="F87" s="163"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="140"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
+      <c r="B89" s="168"/>
+      <c r="C89" s="169"/>
+      <c r="D89" s="169"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -6700,14 +9460,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -6728,259 +9488,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="137" t="s">
+      <c r="B35" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
@@ -7010,17 +9770,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="137"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="137"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
@@ -7127,19 +9887,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
-      <c r="B76" s="139"/>
-      <c r="C76" s="139"/>
-      <c r="D76" s="139"/>
+      <c r="B76" s="167"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
       <c r="E76" s="37"/>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="144" t="s">
+      <c r="B77" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="144"/>
-      <c r="D77" s="144"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="37">
         <v>0</v>
       </c>
@@ -7147,9 +9907,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="139"/>
-      <c r="C78" s="139"/>
-      <c r="D78" s="139"/>
+      <c r="B78" s="167"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="167"/>
       <c r="E78" s="37"/>
       <c r="F78" s="22"/>
     </row>
@@ -7184,31 +9944,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
-      <c r="B82" s="142"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142"/>
+      <c r="B82" s="170"/>
+      <c r="C82" s="170"/>
+      <c r="D82" s="170"/>
+      <c r="E82" s="170"/>
       <c r="F82" s="22"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="136" t="s">
+      <c r="A83" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="164"/>
+      <c r="D83" s="164"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="164"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="145" t="s">
+      <c r="A84" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="145"/>
-      <c r="C84" s="145"/>
-      <c r="D84" s="145"/>
-      <c r="E84" s="145"/>
-      <c r="F84" s="145"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
@@ -7220,26 +9980,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
-      <c r="B86" s="143"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="143"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
       <c r="F86" s="22"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="135" t="s">
+      <c r="A87" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="135"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="135"/>
+      <c r="B87" s="163"/>
+      <c r="C87" s="163"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="163"/>
+      <c r="F87" s="163"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="140"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
+      <c r="B89" s="168"/>
+      <c r="C89" s="169"/>
+      <c r="D89" s="169"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -7449,14 +10209,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -7477,263 +10237,263 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="137" t="s">
+      <c r="B35" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="137"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="137"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="137"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
@@ -7763,17 +10523,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="137"/>
-      <c r="C68" s="137"/>
-      <c r="D68" s="137"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -7880,19 +10640,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="139"/>
-      <c r="C77" s="139"/>
-      <c r="D77" s="139"/>
+      <c r="B77" s="167"/>
+      <c r="C77" s="167"/>
+      <c r="D77" s="167"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="144" t="s">
+      <c r="B78" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="144"/>
-      <c r="D78" s="144"/>
+      <c r="C78" s="172"/>
+      <c r="D78" s="172"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -7900,9 +10660,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="139"/>
-      <c r="C79" s="139"/>
-      <c r="D79" s="139"/>
+      <c r="B79" s="167"/>
+      <c r="C79" s="167"/>
+      <c r="D79" s="167"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -7937,31 +10697,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="142"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="142"/>
-      <c r="E83" s="142"/>
+      <c r="B83" s="170"/>
+      <c r="C83" s="170"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="136" t="s">
+      <c r="A84" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="136"/>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="136"/>
-      <c r="F84" s="136"/>
+      <c r="B84" s="164"/>
+      <c r="C84" s="164"/>
+      <c r="D84" s="164"/>
+      <c r="E84" s="164"/>
+      <c r="F84" s="164"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="145" t="s">
+      <c r="A85" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="145"/>
-      <c r="C85" s="145"/>
-      <c r="D85" s="145"/>
-      <c r="E85" s="145"/>
-      <c r="F85" s="145"/>
+      <c r="B85" s="173"/>
+      <c r="C85" s="173"/>
+      <c r="D85" s="173"/>
+      <c r="E85" s="173"/>
+      <c r="F85" s="173"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -7973,26 +10733,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
+      <c r="B87" s="171"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="135" t="s">
+      <c r="A88" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="135"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
-      <c r="E88" s="135"/>
-      <c r="F88" s="135"/>
+      <c r="B88" s="163"/>
+      <c r="C88" s="163"/>
+      <c r="D88" s="163"/>
+      <c r="E88" s="163"/>
+      <c r="F88" s="163"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="140"/>
-      <c r="C90" s="141"/>
-      <c r="D90" s="141"/>
+      <c r="B90" s="168"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="169"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -8203,14 +10963,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -8231,269 +10991,269 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="137" t="s">
+      <c r="B35" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="137"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="137"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
@@ -8523,17 +11283,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="137"/>
-      <c r="C68" s="137"/>
-      <c r="D68" s="137"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -8640,19 +11400,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="139"/>
-      <c r="C77" s="139"/>
-      <c r="D77" s="139"/>
+      <c r="B77" s="167"/>
+      <c r="C77" s="167"/>
+      <c r="D77" s="167"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="144" t="s">
+      <c r="B78" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="144"/>
-      <c r="D78" s="144"/>
+      <c r="C78" s="172"/>
+      <c r="D78" s="172"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -8660,9 +11420,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="139"/>
-      <c r="C79" s="139"/>
-      <c r="D79" s="139"/>
+      <c r="B79" s="167"/>
+      <c r="C79" s="167"/>
+      <c r="D79" s="167"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -8697,31 +11457,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="142"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="142"/>
-      <c r="E83" s="142"/>
+      <c r="B83" s="170"/>
+      <c r="C83" s="170"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="136" t="s">
+      <c r="A84" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="136"/>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="136"/>
-      <c r="F84" s="136"/>
+      <c r="B84" s="164"/>
+      <c r="C84" s="164"/>
+      <c r="D84" s="164"/>
+      <c r="E84" s="164"/>
+      <c r="F84" s="164"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="145" t="s">
+      <c r="A85" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="145"/>
-      <c r="C85" s="145"/>
-      <c r="D85" s="145"/>
-      <c r="E85" s="145"/>
-      <c r="F85" s="145"/>
+      <c r="B85" s="173"/>
+      <c r="C85" s="173"/>
+      <c r="D85" s="173"/>
+      <c r="E85" s="173"/>
+      <c r="F85" s="173"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -8733,26 +11493,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
+      <c r="B87" s="171"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="135" t="s">
+      <c r="A88" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="135"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
-      <c r="E88" s="135"/>
-      <c r="F88" s="135"/>
+      <c r="B88" s="163"/>
+      <c r="C88" s="163"/>
+      <c r="D88" s="163"/>
+      <c r="E88" s="163"/>
+      <c r="F88" s="163"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="140"/>
-      <c r="C90" s="141"/>
-      <c r="D90" s="141"/>
+      <c r="B90" s="168"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="169"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -8841,10 +11601,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="146"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9527,13 +12287,13 @@
       <c r="F29" s="71"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
       <c r="F30" s="72"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -10016,10 +12776,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="63"/>
-      <c r="B81" s="150" t="s">
+      <c r="B81" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="151"/>
+      <c r="C81" s="179"/>
       <c r="D81" s="125"/>
       <c r="E81" s="126">
         <v>19174.96</v>
@@ -10036,30 +12796,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="129"/>
-      <c r="B83" s="152"/>
-      <c r="C83" s="153"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="181"/>
+      <c r="D83" s="182"/>
+      <c r="E83" s="182"/>
       <c r="F83" s="130"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="155" t="s">
+      <c r="A84" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="155"/>
-      <c r="C84" s="155"/>
-      <c r="D84" s="156"/>
-      <c r="E84" s="156"/>
+      <c r="B84" s="183"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="184"/>
       <c r="F84" s="55"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="157" t="s">
+      <c r="A85" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="157"/>
-      <c r="C85" s="157"/>
-      <c r="D85" s="158"/>
-      <c r="E85" s="158"/>
+      <c r="B85" s="185"/>
+      <c r="C85" s="185"/>
+      <c r="D85" s="186"/>
+      <c r="E85" s="186"/>
       <c r="F85" s="51"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -10079,21 +12839,21 @@
       <c r="F87" s="51"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="135" t="s">
+      <c r="A88" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="135"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
-      <c r="E88" s="135"/>
-      <c r="F88" s="135"/>
+      <c r="B88" s="163"/>
+      <c r="C88" s="163"/>
+      <c r="D88" s="163"/>
+      <c r="E88" s="163"/>
+      <c r="F88" s="163"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="63"/>
-      <c r="B89" s="147"/>
-      <c r="C89" s="147"/>
-      <c r="D89" s="148"/>
-      <c r="E89" s="148"/>
+      <c r="B89" s="175"/>
+      <c r="C89" s="175"/>
+      <c r="D89" s="176"/>
+      <c r="E89" s="176"/>
       <c r="F89" s="51"/>
     </row>
   </sheetData>
